--- a/similarities/split_global/harmonic_similarity_timestamps_395.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_395.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/F', 'F:min'], ['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:05.840000', '0:00:12.720000'), ('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:01:19.420000', '0:01:26.020000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000'), ('0:01:14.100000', '0:01:20.040000')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=5.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.920000')]</t>
+          <t>('0:00:41.700000', '0:00:57.940000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:30.380000')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:31.910000', '0:00:40.720000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'C', 'G/3']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:34.416000', '0:00:41.151000')]</t>
+          <t>('0:00:00.480000', '0:00:08.480000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:20.614081', '0:00:24.271224')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=34.416']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-99#t=20.614081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'D:maj'], ['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:12.020000'), ('0:00:09.940000', '0:00:12.720000')]</t>
+          <t>('0:00:02.500000', '0:00:26.200000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:41.460000', '0:00:45.060000'), ('0:00:42.620000', '0:00:45.660000')]</t>
+          <t>('0:00:10.200000', '0:00:12.320000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=41.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=42.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:31.340000', '0:00:41.920000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:01:53.720000', '0:02:10.980000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=31.34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=113.72</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['G:7', 'C', 'G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:01:00.006734', '0:01:08.830317')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:06.740000', '0:00:12.420000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=60.006734</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=6.74</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj/A', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:05.860000', '0:00:13.500000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:38.588000', '0:00:43.202000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=5.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:46.272131', '0:00:52.170000')]</t>
+          <t>('0:00:43.880000', '0:00:57.580000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.900000', '0:00:10.620000')]</t>
+          <t>('0:00:26.040000', '0:00:59.820000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-242#t=46.272131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=26.04</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D:7', 'G:min', 'D:7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:7', 'F:min', 'C:7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:31.340000', '0:00:33.520000')]</t>
+          <t>('0:00:42.290000', '0:00:47.770000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:40.280000', '0:00:45.520000')]</t>
+          <t>('0:00:42.140000', '0:00:47.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=42.29</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=42.14</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:7/3', 'A', 'A:min/b3', 'E']]</t>
+          <t>['A', 'D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:03.140000', '0:00:12.140000')]</t>
+          <t>('0:01:57.540000', '0:02:02.700000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:21.908049', '0:00:27.840748')]</t>
+          <t>('0:00:00.939000', '0:00:04.875000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=3.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=21.908049']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:08.740000')]</t>
+          <t>('0:00:23.260000', '0:00:33.620000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:54.900000')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:01:00.761383', '0:01:09.294716')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:45.840000', '0:02:00.500000'), ('0:01:56.800000', '0:02:12.880000')]</t>
+          <t>('0:00:02.408196', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:43.960000', '0:00:47.420000'), ('0:01:07.160000', '0:01:12.400000')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=105.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=116.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=43.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=67.16']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
